--- a/.patagonia/patagonia_products_category_analysis.xlsx
+++ b/.patagonia/patagonia_products_category_analysis.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -11262,7 +11262,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -11964,7 +11964,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -12744,7 +12744,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -12783,7 +12783,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -13251,7 +13251,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -13992,7 +13992,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -14382,7 +14382,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -14967,7 +14967,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -15474,7 +15474,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>patagonia_men_products.xlsx</t>
+          <t>.patagonia/patagonia_men_products.xlsx</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -16722,7 +16722,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -16995,7 +16995,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -17346,7 +17346,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -17424,7 +17424,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -17580,7 +17580,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -18009,7 +18009,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -18360,7 +18360,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -18555,7 +18555,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -18672,7 +18672,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -18945,7 +18945,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -19101,7 +19101,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -19140,7 +19140,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -19296,7 +19296,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -19413,7 +19413,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -19452,7 +19452,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -19491,7 +19491,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -19647,7 +19647,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -19725,7 +19725,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -19764,7 +19764,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -19803,7 +19803,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -19920,7 +19920,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -19959,7 +19959,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -19998,7 +19998,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -20037,7 +20037,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -20154,7 +20154,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -20193,7 +20193,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -20310,7 +20310,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -20661,7 +20661,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -20700,7 +20700,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -20817,7 +20817,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -20895,7 +20895,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -20934,7 +20934,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -21168,7 +21168,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -21402,7 +21402,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -21441,7 +21441,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -21519,7 +21519,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -21558,7 +21558,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -21636,7 +21636,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -21753,7 +21753,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -21987,7 +21987,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -22026,7 +22026,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -22104,7 +22104,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -22182,7 +22182,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -22338,7 +22338,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -22494,7 +22494,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -22572,7 +22572,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -22689,7 +22689,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -22806,7 +22806,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -22845,7 +22845,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -22962,7 +22962,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -23040,7 +23040,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -23079,7 +23079,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -23118,7 +23118,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -23274,7 +23274,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -23391,7 +23391,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -23430,7 +23430,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -23469,7 +23469,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -23508,7 +23508,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -23625,7 +23625,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -23664,7 +23664,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -23859,7 +23859,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -23898,7 +23898,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -24054,7 +24054,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -24093,7 +24093,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -24132,7 +24132,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -24171,7 +24171,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -24210,7 +24210,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -24249,7 +24249,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -24288,7 +24288,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -24366,7 +24366,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -24444,7 +24444,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -24600,7 +24600,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -24678,7 +24678,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -24795,7 +24795,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -24834,7 +24834,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -24873,7 +24873,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -24912,7 +24912,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -24951,7 +24951,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -25068,7 +25068,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -25146,7 +25146,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -25185,7 +25185,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -25263,7 +25263,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -25302,7 +25302,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>patagonia_women_products.xlsx</t>
+          <t>.patagonia/patagonia_women_products.xlsx</t>
         </is>
       </c>
       <c r="C648" t="n">
